--- a/Data/collapsed database manual cases/colima_collapsed_edited.xlsx
+++ b/Data/collapsed database manual cases/colima_collapsed_edited.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10714"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11214"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d7da8e9ec94b4821/Documents/ITAM/RA - Horacio/Monitoring Brokers/Data/States/colima/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jpzorrilla/Documents/GitHub/The-Mexican-municipal-elections-electoral-precinct-level-database/Data/collapsed database manual cases/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="27" documentId="8_{34BD39A1-6F0A-FE40-8387-68B40301A193}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9D3CEAD8-318F-0741-9FD3-F5A1CA077B1E}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{051F32F9-128B-0148-9CAA-0EDA37D9188A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="30240" windowHeight="18900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4480" yWindow="740" windowWidth="30240" windowHeight="18900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="683" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="735" uniqueCount="174">
   <si>
     <t>uniqueid</t>
   </si>
@@ -479,13 +479,79 @@
   </si>
   <si>
     <t>https://es.wikipedia.org/wiki/Brenda_del_Carmen_Gutiérrez_Vega</t>
+  </si>
+  <si>
+    <t>PT_MORENA_PES</t>
+  </si>
+  <si>
+    <t>SALVADOR BUENO ARCEO</t>
+  </si>
+  <si>
+    <t>PAN_PRI_PRD</t>
+  </si>
+  <si>
+    <t>ELIA MARGARITA MORENO GONZALEZ</t>
+  </si>
+  <si>
+    <t>JOSE DONALDO RICARDO ZU√ëIGA</t>
+  </si>
+  <si>
+    <t>FELIPE DE JESUS MICHEL SANTANA</t>
+  </si>
+  <si>
+    <t>MORENA</t>
+  </si>
+  <si>
+    <t>JOSE GUADALUPE BENAVIDES FLORIAN</t>
+  </si>
+  <si>
+    <t>MORENA_PANAL</t>
+  </si>
+  <si>
+    <t>LEONOR ALCARAZ MANZO</t>
+  </si>
+  <si>
+    <t>GABRIELA MEJIA MARTINEZ</t>
+  </si>
+  <si>
+    <t>GRISELDA MARTINEZ MARTINEZ</t>
+  </si>
+  <si>
+    <t>LILIA FIGUEROA LARIOS</t>
+  </si>
+  <si>
+    <t>ELIAS ANTONIO LOZANO OCHOA</t>
+  </si>
+  <si>
+    <t>ESTHER GUTIERREZ ANDRADE</t>
+  </si>
+  <si>
+    <t>https://ieecolima.org.mx/coalicion2018/CONVENIO-PRI-PVEM.pdf</t>
+  </si>
+  <si>
+    <t>militancia</t>
+  </si>
+  <si>
+    <t>https://ieecolima.org.mx/coalicion2018/CONVENIO-PAN-MC-PRD.pdf</t>
+  </si>
+  <si>
+    <t>https://ieecolima.org.mx/resolucion2017/CMORENA-PT-PES.pdf</t>
+  </si>
+  <si>
+    <t>PT</t>
+  </si>
+  <si>
+    <t>PES</t>
+  </si>
+  <si>
+    <t>https://ieecolima.org.mx/resolucion2020/panpriprd_total.pdf</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -497,6 +563,14 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -519,16 +593,19 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -832,10 +909,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:S81"/>
+  <dimension ref="A1:S94"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="159" workbookViewId="0">
-      <selection activeCell="I84" sqref="I84"/>
+    <sheetView tabSelected="1" zoomScale="111" workbookViewId="0">
+      <selection activeCell="H87" sqref="H87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3984,12 +4061,275 @@
         <v>39</v>
       </c>
     </row>
+    <row r="82" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A82">
+        <v>6001</v>
+      </c>
+      <c r="B82">
+        <v>2021</v>
+      </c>
+      <c r="E82" t="s">
+        <v>152</v>
+      </c>
+      <c r="F82" t="s">
+        <v>153</v>
+      </c>
+      <c r="H82" t="s">
+        <v>171</v>
+      </c>
+      <c r="I82" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="83" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A83">
+        <v>6002</v>
+      </c>
+      <c r="B83">
+        <v>2024</v>
+      </c>
+      <c r="E83" t="s">
+        <v>154</v>
+      </c>
+      <c r="F83" t="s">
+        <v>155</v>
+      </c>
+      <c r="H83" t="s">
+        <v>46</v>
+      </c>
+      <c r="I83" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="84" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A84">
+        <v>6003</v>
+      </c>
+      <c r="B84">
+        <v>2021</v>
+      </c>
+      <c r="E84" t="s">
+        <v>27</v>
+      </c>
+      <c r="F84" t="s">
+        <v>156</v>
+      </c>
+      <c r="H84" t="s">
+        <v>46</v>
+      </c>
+      <c r="I84" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="85" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A85">
+        <v>6003</v>
+      </c>
+      <c r="B85">
+        <v>2024</v>
+      </c>
+      <c r="E85" t="s">
+        <v>154</v>
+      </c>
+      <c r="F85" t="s">
+        <v>157</v>
+      </c>
+      <c r="H85" t="s">
+        <v>46</v>
+      </c>
+      <c r="I85" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="86" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A86">
+        <v>6004</v>
+      </c>
+      <c r="B86">
+        <v>2021</v>
+      </c>
+      <c r="E86" t="s">
+        <v>33</v>
+      </c>
+      <c r="F86" t="s">
+        <v>159</v>
+      </c>
+      <c r="H86" t="s">
+        <v>21</v>
+      </c>
+      <c r="I86" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="87" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A87">
+        <v>6004</v>
+      </c>
+      <c r="B87">
+        <v>2024</v>
+      </c>
+      <c r="E87" t="s">
+        <v>160</v>
+      </c>
+      <c r="F87" t="s">
+        <v>161</v>
+      </c>
+      <c r="H87" t="s">
+        <v>158</v>
+      </c>
+      <c r="I87" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="88" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A88">
+        <v>6005</v>
+      </c>
+      <c r="B88">
+        <v>2021</v>
+      </c>
+      <c r="E88" t="s">
+        <v>27</v>
+      </c>
+      <c r="F88" t="s">
+        <v>84</v>
+      </c>
+      <c r="H88" t="s">
+        <v>46</v>
+      </c>
+      <c r="I88" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="89" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A89">
+        <v>6005</v>
+      </c>
+      <c r="B89">
+        <v>2024</v>
+      </c>
+      <c r="E89" t="s">
+        <v>154</v>
+      </c>
+      <c r="F89" t="s">
+        <v>162</v>
+      </c>
+      <c r="H89" t="s">
+        <v>21</v>
+      </c>
+      <c r="I89" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="90" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A90">
+        <v>6006</v>
+      </c>
+      <c r="B90">
+        <v>2021</v>
+      </c>
+      <c r="E90" t="s">
+        <v>152</v>
+      </c>
+      <c r="F90" t="s">
+        <v>94</v>
+      </c>
+      <c r="H90" t="s">
+        <v>172</v>
+      </c>
+      <c r="I90" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="91" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A91">
+        <v>6007</v>
+      </c>
+      <c r="B91">
+        <v>2021</v>
+      </c>
+      <c r="E91" t="s">
+        <v>152</v>
+      </c>
+      <c r="F91" t="s">
+        <v>163</v>
+      </c>
+      <c r="H91" t="s">
+        <v>158</v>
+      </c>
+      <c r="I91" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="92" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A92">
+        <v>6008</v>
+      </c>
+      <c r="B92">
+        <v>2021</v>
+      </c>
+      <c r="E92" t="s">
+        <v>33</v>
+      </c>
+      <c r="F92" t="s">
+        <v>164</v>
+      </c>
+      <c r="H92" t="s">
+        <v>21</v>
+      </c>
+      <c r="I92" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="93" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A93">
+        <v>6009</v>
+      </c>
+      <c r="B93">
+        <v>2021</v>
+      </c>
+      <c r="E93" t="s">
+        <v>152</v>
+      </c>
+      <c r="F93" t="s">
+        <v>165</v>
+      </c>
+      <c r="H93" t="s">
+        <v>158</v>
+      </c>
+      <c r="I93" s="2" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="94" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A94">
+        <v>6010</v>
+      </c>
+      <c r="B94">
+        <v>2024</v>
+      </c>
+      <c r="E94" t="s">
+        <v>154</v>
+      </c>
+      <c r="F94" t="s">
+        <v>166</v>
+      </c>
+      <c r="H94" t="s">
+        <v>21</v>
+      </c>
+      <c r="I94" t="s">
+        <v>173</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:S81" xr:uid="{00000000-0001-0000-0000-000000000000}">
     <filterColumn colId="6">
       <filters blank="1"/>
     </filterColumn>
   </autoFilter>
+  <hyperlinks>
+    <hyperlink ref="I93" r:id="rId1" xr:uid="{F0A24B76-CA9E-F84B-93ED-1445C5A8D77D}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>